--- a/input/mappings/SO2_control_frac_last_inv_year.xlsx
+++ b/input/mappings/SO2_control_frac_last_inv_year.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS_Emissions/CEDS_v0611/input/mappings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5374FA0F-FEE1-BA4A-995A-3CCFD9F4C8C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23820" windowHeight="9855"/>
+    <workbookView xWindow="11900" yWindow="460" windowWidth="22500" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="last_inv_year" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">complete_info!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">last_inv_year!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="88">
   <si>
     <t>arg</t>
   </si>
@@ -289,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -840,6 +854,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -887,7 +904,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,9 +937,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,6 +989,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1130,19 +1181,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1202,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1210,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1166,15 +1218,15 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
       <c r="B4">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1182,31 +1234,31 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
       <c r="B6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
       <c r="B7">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1214,23 +1266,23 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
       <c r="B10">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
       <c r="B11">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1290,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1246,135 +1298,135 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B18">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
-      <c r="B26">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B28">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B29">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1434,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1390,31 +1442,31 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="B34">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1474,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1430,15 +1482,15 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
-      <c r="B37">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1498,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1506,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1462,15 +1514,15 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="B41">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1478,39 +1530,39 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>74</v>
       </c>
-      <c r="B44">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
-      <c r="B45">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>75</v>
       </c>
-      <c r="B46">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1518,23 +1570,23 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B48">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
-      <c r="B49">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1542,15 +1594,15 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>82</v>
       </c>
-      <c r="B51">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -1558,23 +1610,23 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B53">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="B54">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1582,15 +1634,15 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B56">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -1598,7 +1650,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -1606,15 +1658,15 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>29</v>
       </c>
@@ -1622,23 +1674,23 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>30</v>
       </c>
@@ -1646,39 +1698,39 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B64">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="13">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="13">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="13">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>31</v>
       </c>
@@ -1686,7 +1738,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1746,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>33</v>
       </c>
@@ -1702,15 +1754,15 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="18">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1770,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>70</v>
       </c>
@@ -1726,15 +1778,15 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="18">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="19">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>34</v>
       </c>
@@ -1742,7 +1794,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>35</v>
       </c>
@@ -1751,12 +1803,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState ref="A2:C5">
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:C156">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C156">
     <sortCondition ref="A2:A156"/>
     <sortCondition ref="B2:B156"/>
   </sortState>
@@ -1765,20 +1817,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="3" width="9.1640625" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1841,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -1800,7 +1852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>79</v>
       </c>
@@ -1811,878 +1863,878 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B5" s="19">
         <v>2011</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B6" s="19">
         <v>2007</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="C6" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B8" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B9" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>38</v>
-      </c>
       <c r="B13" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="B17" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="B21" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="B22" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="B24" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="B25" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="B26" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="B27" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="B28" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="B29" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="B30" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="B31" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="B32" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C30" s="19" t="s">
+      <c r="B33" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="B34" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="B37" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="B40" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="B43" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="B46" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="B49" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="B52" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="B55" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+      <c r="B58" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+      <c r="B59" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="B61" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+      <c r="B62" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C60" s="19" t="s">
+      <c r="B63" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="B61" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="B64" s="19">
         <v>2013</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C65" s="19" t="s">
+      <c r="B69" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="B70" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="B71" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C68" s="19" t="s">
+      <c r="B72" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C69" s="19" t="s">
+      <c r="B73" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C70" s="19" t="s">
+      <c r="B74" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="B75" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B72" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="B76" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C73" s="19" t="s">
+      <c r="B77" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C77" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="B78" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+      <c r="B79" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C76" s="19" t="s">
+      <c r="B80" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C80" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B77" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="B81" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B78" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
+      <c r="B82" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
         <v>4</v>
-      </c>
-      <c r="B79" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="19">
-        <v>2010</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>17</v>
       </c>
       <c r="B83" s="19">
         <v>2008</v>
@@ -2691,31 +2743,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B84" s="19">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B85" s="19">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B86" s="19">
         <v>2008</v>
@@ -2724,9 +2776,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B87" s="19">
         <v>2008</v>
@@ -2735,383 +2787,383 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B88" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C88" s="19" t="s">
+      <c r="B93" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C93" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C89" s="19" t="s">
+      <c r="B94" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C94" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B90" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B92" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B93" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B94" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="B95" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B96" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
+      <c r="B100" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
+      <c r="B101" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B98" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
+      <c r="B103" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
+      <c r="B104" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C100" s="19" t="s">
+      <c r="B105" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C105" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
+      <c r="B106" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
+      <c r="B107" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B103" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C103" s="19" t="s">
+      <c r="B108" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B104" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
+      <c r="B109" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B105" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
+      <c r="B110" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B106" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C106" s="19" t="s">
+      <c r="B111" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C111" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="19">
+      <c r="B112" s="19">
         <v>2011</v>
       </c>
-      <c r="C107" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
+      <c r="C112" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C108" s="19" t="s">
+      <c r="B114" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C114" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C109" s="19" t="s">
+      <c r="B115" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C115" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="19" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B110" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C110" s="19" t="s">
+      <c r="B116" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C116" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="19" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B111" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="19" t="s">
+      <c r="B117" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B112" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="19" t="s">
+      <c r="B118" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B113" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C113" s="19" t="s">
+      <c r="B119" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C119" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="19" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B114" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="19" t="s">
+      <c r="B120" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B115" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
+      <c r="B121" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B116" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B117" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B118" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B119" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B120" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B121" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="B122" s="19">
         <v>2008</v>
@@ -3120,262 +3172,262 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B123" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B127" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B128" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B124" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
+      <c r="B129" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B125" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
+      <c r="B130" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B126" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C126" s="19" t="s">
+      <c r="B132" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C132" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B127" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C127" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
+      <c r="B133" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B128" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+      <c r="B134" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B129" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
+      <c r="B135" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B130" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C130" s="19" t="s">
+      <c r="B136" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C136" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B131" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
+      <c r="B137" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B132" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
+      <c r="B138" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B133" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B134" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B135" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B136" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B137" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B138" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
-        <v>68</v>
-      </c>
       <c r="B139" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C139" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B140" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B141" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B142" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B143" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B140" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B141" s="19">
-        <v>2013</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B142" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C142" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B143" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B144" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="19" t="s">
-        <v>69</v>
-      </c>
       <c r="B145" s="19">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B146" s="19">
         <v>2012</v>
@@ -3384,20 +3436,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B147" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C147" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="19" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B148" s="19">
         <v>2008</v>
@@ -3406,97 +3458,163 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B151" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B152" s="19">
+        <v>2012</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B149" s="19">
+      <c r="B154" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="19">
         <v>2010</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C155" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="19" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B150" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C150" s="19" t="s">
+      <c r="B156" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C156" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="19" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B151" s="19">
+      <c r="B157" s="19">
         <v>2013</v>
       </c>
-      <c r="C151" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="19" t="s">
+      <c r="C157" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B152" s="19">
+      <c r="B158" s="19">
         <v>2004</v>
       </c>
-      <c r="C152" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="19" t="s">
+      <c r="C158" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="19">
-        <v>2012</v>
-      </c>
-      <c r="C153" s="19" t="s">
+      <c r="B159" s="19">
+        <v>2017</v>
+      </c>
+      <c r="C159" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="19" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B154" s="19">
+      <c r="B160" s="19">
         <v>2014</v>
       </c>
-      <c r="C154" s="19" t="s">
+      <c r="C160" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="19" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B155" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C155" s="19" t="s">
+      <c r="B161" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C161" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="19" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B156" s="19">
-        <v>2008</v>
-      </c>
-      <c r="C156" s="19" t="s">
+      <c r="B162" s="19">
+        <v>2008</v>
+      </c>
+      <c r="C162" s="19" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
-    <sortState ref="A2:C156">
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -3505,26 +3623,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>85</v>
       </c>
